--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Data/fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4FD653E5-604D-451D-89BE-99BF9DC1BD22}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26CEC287-C35B-4631-88F4-48E6FA0BE77A}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="2775" windowWidth="22965" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="2490" windowWidth="22965" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>华夏中证新能源汽车ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证环保产业ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安黄金ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证全指金融地产ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝中证科技龙头ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华中证创新药产业ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证全指证券公司ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,16 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -425,99 +449,127 @@
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>512480</v>
+        <v>512580</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>512660</v>
+        <v>159940</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>159996</v>
+        <v>512480</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>512800</v>
+        <v>512660</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>159967</v>
+        <v>159996</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>512690</v>
+        <v>512880</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>513050</v>
+        <v>518880</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>159995</v>
+        <v>515000</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <v>512800</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>159967</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>159995</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>515030</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>512690</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>513050</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>159992</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
-    <sortCondition ref="B1:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B16">
+    <sortCondition ref="B1:B16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26CEC287-C35B-4631-88F4-48E6FA0BE77A}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A186EF77-A810-49C2-933B-36ED06A1729F}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="2490" windowWidth="22965" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国联安中证半导体ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鹏华中证酒ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,10 @@
   </si>
   <si>
     <t>国泰中证全指证券公司ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞中证光伏产业ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,7 +452,7 @@
         <v>512580</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -460,63 +460,63 @@
         <v>159940</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>512480</v>
+        <v>512660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>512660</v>
+        <v>159996</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>159996</v>
+        <v>512880</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>512880</v>
+        <v>518880</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>518880</v>
+        <v>515000</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>515000</v>
+        <v>512800</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>512800</v>
+        <v>515790</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -524,7 +524,7 @@
         <v>159967</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -532,7 +532,7 @@
         <v>159995</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -540,7 +540,7 @@
         <v>515030</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -548,7 +548,7 @@
         <v>512690</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -564,7 +564,7 @@
         <v>159992</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A186EF77-A810-49C2-933B-36ED06A1729F}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC352AB2-A0FB-4398-B80E-76BF260CD321}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="2490" windowWidth="22965" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华安黄金ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广发中证全指金融地产ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,9 @@
   <si>
     <t>华泰柏瑞中证光伏产业ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方中证申万有色金属ETF</t>
   </si>
 </sst>
 </file>
@@ -430,7 +429,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,7 +459,7 @@
         <v>159940</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -484,63 +483,63 @@
         <v>512880</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>518880</v>
+        <v>515000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>515000</v>
+        <v>512800</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>512800</v>
+        <v>515790</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>515790</v>
+        <v>159967</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>159967</v>
+        <v>159995</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>159995</v>
+        <v>515030</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>515030</v>
+        <v>512400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -564,7 +563,7 @@
         <v>159992</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC352AB2-A0FB-4398-B80E-76BF260CD321}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEE38A47-057D-4C32-B9EB-0536524F5908}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="2595" windowWidth="17640" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广发中证全指金融地产ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华宝中证科技龙头ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,15 +79,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国泰中证全指证券公司ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华泰柏瑞中证光伏产业ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南方中证申万有色金属ETF</t>
+  </si>
+  <si>
+    <t>鹏华中证细分化工产业ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,119 +452,111 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>159940</v>
+        <v>512660</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>512660</v>
+        <v>159996</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>159996</v>
+        <v>515000</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>512880</v>
+        <v>512800</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>515000</v>
+        <v>515790</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>512800</v>
+        <v>159967</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>515790</v>
+        <v>159995</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>159967</v>
+        <v>515030</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>159995</v>
+        <v>512400</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>515030</v>
+        <v>512690</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>512400</v>
+        <v>159870</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>512690</v>
+        <v>513050</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>513050</v>
+        <v>159992</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>159992</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B16">
-    <sortCondition ref="B1:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
+    <sortCondition ref="B1:B15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEE38A47-057D-4C32-B9EB-0536524F5908}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AFA5FBAC-C9A8-450B-8145-520E00A42E20}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="2595" windowWidth="17640" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1950" windowWidth="16620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,43 +35,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易方达中证互联50ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰中证军工ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国泰中证全指家电ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华宝中证银行ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华中证酒ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华夏创成长ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华夏国证半导体芯片ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华夏中证新能源汽车ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广发中证环保产业ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝中证科技龙头ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +91,20 @@
       <name val="唐美人 常规体"/>
       <family val="5"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="唐美人 常规体"/>
+      <family val="5"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,11 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,7 +428,7 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,121 +436,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>515790</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>159967</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4757</v>
+      </c>
+      <c r="D3" s="3">
+        <v>85.77</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5228</v>
+      </c>
+      <c r="D4" s="3">
+        <v>33.54</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>512400</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3282</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>159870</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>159992</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5304</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>512580</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>512660</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4603</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>159996</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>515000</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>512800</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>515790</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>159967</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>159995</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>515030</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>512400</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>512690</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>159870</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>513050</v>
-      </c>
-      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>159992</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
+      <c r="C9">
+        <v>4000</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
-    <sortCondition ref="B1:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AFA5FBAC-C9A8-450B-8145-520E00A42E20}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46186246-9190-47AB-AAFD-9389E5517176}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1950" windowWidth="16620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2055" windowWidth="11970" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国泰中证全指家电ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华夏创成长ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,18 @@
   </si>
   <si>
     <t>鹏华中证细分化工产业ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证煤炭ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证钢铁ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证家电ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,7 +449,7 @@
         <v>515790</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -449,7 +457,7 @@
         <v>159967</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>4757</v>
@@ -466,7 +474,7 @@
         <v>515030</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>5228</v>
@@ -483,7 +491,7 @@
         <v>512400</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>3282</v>
@@ -500,7 +508,7 @@
         <v>159870</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -508,7 +516,7 @@
         <v>159992</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>5304</v>
@@ -525,7 +533,7 @@
         <v>512580</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4603</v>
@@ -542,7 +550,7 @@
         <v>159996</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>4000</v>
@@ -552,6 +560,22 @@
       </c>
       <c r="E9">
         <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>515220</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>515210</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46186246-9190-47AB-AAFD-9389E5517176}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{534586EE-2E70-419D-A698-A926CE2851C3}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2055" windowWidth="11970" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,42 +35,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华夏创成长ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏中证新能源汽车ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发中证环保产业ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华中证创新药产业ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞中证光伏产业ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方中证申万有色金属ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证细分化工产业ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰中证煤炭ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰中证钢铁ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰中证家电ETF</t>
+    <t>华夏中证人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝中证银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏中证新能源汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏创成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞中证光伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方中证有色金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华中证细分化工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华中证创新药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏中证细分食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时上证自然资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达中证海外中国互联网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,21 +124,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="唐美人 常规体"/>
       <family val="5"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="唐美人 常规体"/>
-      <family val="5"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,9 +164,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,150 +462,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
+        <v>510410</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>512580</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4603</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>515210</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>159996</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>512660</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>512800</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>515790</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>159967</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4757</v>
+      </c>
+      <c r="D9" s="3">
+        <v>85.77</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>159995</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>515070</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>4757</v>
-      </c>
-      <c r="D3" s="3">
-        <v>85.77</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>515179</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>515030</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
         <v>5228</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D13" s="3">
         <v>33.54</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E13" s="3">
         <v>1379</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>159930</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>512400</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
         <v>3282</v>
       </c>
-      <c r="D5">
+      <c r="D15" s="3">
         <v>65</v>
       </c>
-      <c r="E5">
+      <c r="E15" s="3">
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>159870</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>159992</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
         <v>5304</v>
       </c>
-      <c r="D7">
+      <c r="D17" s="3">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E17" s="3">
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>512580</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>4603</v>
-      </c>
-      <c r="D8">
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>159996</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>4000</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>515220</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>515210</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>513050</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
-    <sortCondition ref="B1:B7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E17">
+    <sortCondition ref="B1:B17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{534586EE-2E70-419D-A698-A926CE2851C3}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0F72AE9-6829-4EF2-913E-FAC943700A20}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10845" yWindow="2280" windowWidth="16905" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>银华中证创新药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发中证环保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +131,6 @@
       <family val="5"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,13 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,240 +450,145 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>510410</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>515210</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>159996</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>512660</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>512800</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>515790</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>159967</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>159995</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>512580</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>515070</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>515179</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
-        <v>4603</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>515210</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>159996</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>512660</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>512800</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>515790</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>159967</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4757</v>
-      </c>
-      <c r="D9" s="3">
-        <v>85.77</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>159995</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>159930</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>512400</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>159870</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>159992</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>513050</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>515070</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>515179</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>515030</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5228</v>
-      </c>
-      <c r="D13" s="3">
-        <v>33.54</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>159930</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>512400</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3282</v>
-      </c>
-      <c r="D15" s="3">
-        <v>65</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>159870</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>159992</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5304</v>
-      </c>
-      <c r="D17" s="3">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>513050</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E17">
-    <sortCondition ref="B1:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B16">
+    <sortCondition ref="B1:B16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0F72AE9-6829-4EF2-913E-FAC943700A20}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C60A80FF-0EC4-451B-ADEA-6CC3E371437B}"/>
   <bookViews>
     <workbookView xWindow="10845" yWindow="2280" windowWidth="16905" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>华夏国证半导体芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达中证海外中国互联网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,14 +574,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>513050</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B16">
     <sortCondition ref="B1:B16"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C60A80FF-0EC4-451B-ADEA-6CC3E371437B}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BBD89C1B-E1EB-47DA-AC92-A6C6E4324832}"/>
   <bookViews>
     <workbookView xWindow="10845" yWindow="2280" windowWidth="16905" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>华夏国证半导体芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达中证海外互联网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +532,7 @@
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>515179</v>
+        <v>515170</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -572,6 +576,14 @@
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>513050</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BBD89C1B-E1EB-47DA-AC92-A6C6E4324832}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{213F0AD9-5868-43CA-AF53-4E5ADB2BD97F}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="2280" windowWidth="16905" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1800" windowWidth="21855" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,26 @@
   </si>
   <si>
     <t>易方达中证海外互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏上证科创板50成份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子 计算机 医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非银金融 医药 电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,19 +458,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,137 +479,172 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
+        <v>159967</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>588000</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>515170</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>515790</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>510410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>515210</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>159996</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>512660</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>512800</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>515790</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>159967</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>159995</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>515070</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>515170</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>515030</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>159930</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>512400</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>159870</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>159992</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>513050</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B16">
-    <sortCondition ref="B1:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B17">
+    <sortCondition ref="B1:B17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{213F0AD9-5868-43CA-AF53-4E5ADB2BD97F}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{217DF58B-611C-4EEA-91B3-1340F4B75E51}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1800" windowWidth="21855" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2400" windowWidth="21690" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华夏中证人工智能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华宝中证银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富中证能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国泰中证家电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +108,50 @@
   </si>
   <si>
     <t>食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝中证医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,16 +514,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>159967</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -495,43 +534,43 @@
         <v>588000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>515170</v>
+        <v>515790</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>515790</v>
+        <v>515030</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>515030</v>
+        <v>515170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -539,112 +578,125 @@
         <v>510410</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>515210</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>159996</v>
+        <v>512400</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>512660</v>
+        <v>159996</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>512800</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>159995</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>515070</v>
+        <v>159870</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>159930</v>
+        <v>159992</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>512400</v>
+        <v>512170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>159870</v>
+        <v>512660</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>159992</v>
+        <v>513050</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>513050</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B17">
-    <sortCondition ref="B1:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{217DF58B-611C-4EEA-91B3-1340F4B75E51}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF3C05B-24C9-409D-BBC0-C1556F576EDA}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2400" windowWidth="21690" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,34 +581,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>510410</v>
+        <v>512690</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>515210</v>
+        <v>510410</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>512400</v>
+        <v>515210</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -608,95 +616,106 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>159996</v>
+        <v>512400</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>512800</v>
+        <v>159996</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>159995</v>
+        <v>512800</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>159870</v>
+        <v>159995</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>159992</v>
+        <v>159870</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>512170</v>
+        <v>159992</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>512660</v>
+        <v>512170</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
+        <v>512660</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>513050</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B14">
-    <sortCondition ref="B1:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B15">
+    <sortCondition ref="B1:B15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF3C05B-24C9-409D-BBC0-C1556F576EDA}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8AB19B6-4D7E-4FF5-B67B-5C5C10785CEC}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>华泰柏瑞中证光伏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方中证有色金属</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -534,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -542,10 +538,10 @@
         <v>588000</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -556,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -567,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -575,10 +571,10 @@
         <v>515170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -586,10 +582,10 @@
         <v>512690</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -597,10 +593,10 @@
         <v>510410</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -611,56 +607,56 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>512400</v>
+        <v>159996</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>159996</v>
+        <v>512800</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>512800</v>
+        <v>159995</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>159995</v>
+        <v>159870</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>159870</v>
+        <v>159992</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -671,51 +667,40 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>159992</v>
+        <v>512170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>512170</v>
+        <v>512660</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>512660</v>
+        <v>513050</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>513050</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B15">
-    <sortCondition ref="B1:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8AB19B6-4D7E-4FF5-B67B-5C5C10785CEC}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9423BE2C-F4D3-439E-B1AB-D87B90C917CA}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国泰中证家电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国泰中证钢铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +108,6 @@
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
@@ -519,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -527,10 +519,10 @@
         <v>159967</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -538,10 +530,10 @@
         <v>588000</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -549,10 +541,10 @@
         <v>515790</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -560,10 +552,10 @@
         <v>515030</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -571,10 +563,10 @@
         <v>515170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -582,10 +574,10 @@
         <v>512690</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -593,10 +585,10 @@
         <v>510410</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -604,18 +596,18 @@
         <v>515210</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>159996</v>
+        <v>512800</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -623,43 +615,43 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>512800</v>
+        <v>159995</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>159995</v>
+        <v>159870</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>159870</v>
+        <v>159992</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>159992</v>
+        <v>512170</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -667,40 +659,29 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>512170</v>
+        <v>512660</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>512660</v>
+        <v>513050</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>513050</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B14">
-    <sortCondition ref="B1:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B13">
+    <sortCondition ref="B1:B13"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9423BE2C-F4D3-439E-B1AB-D87B90C917CA}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB71C21-7003-4B8B-9419-F26C65882A4F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,22 @@
   </si>
   <si>
     <t>酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海富通中证港股科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港股科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证科创创业50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双创</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,21 +554,21 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>515790</v>
+        <v>588380</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>515030</v>
+        <v>515790</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -560,43 +576,43 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>515170</v>
+        <v>515030</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>512690</v>
+        <v>515170</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>510410</v>
+        <v>512690</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>515210</v>
+        <v>510410</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
@@ -604,84 +620,106 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>512800</v>
+        <v>515210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>159995</v>
+        <v>512800</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>159870</v>
+        <v>159995</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>159992</v>
+        <v>159870</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>512170</v>
+        <v>159992</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>512660</v>
+        <v>512170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
+        <v>512660</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>513860</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>513050</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B13">
-    <sortCondition ref="B1:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB71C21-7003-4B8B-9419-F26C65882A4F}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECE5A4F-C788-4D7F-B5F5-ABDFB30FDD00}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>华宝中证银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰中证钢铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -535,10 +531,10 @@
         <v>159967</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -546,10 +542,10 @@
         <v>588000</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -557,10 +553,10 @@
         <v>588380</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -568,10 +564,10 @@
         <v>515790</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -579,10 +575,10 @@
         <v>515030</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -590,10 +586,10 @@
         <v>515170</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -601,10 +597,10 @@
         <v>512690</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -612,48 +608,48 @@
         <v>510410</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>515210</v>
+        <v>512800</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>512800</v>
+        <v>159995</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>159995</v>
+        <v>159870</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>159870</v>
+        <v>159992</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -664,62 +660,51 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>159992</v>
+        <v>512170</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>512170</v>
+        <v>512660</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>512660</v>
+        <v>513860</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>513860</v>
+        <v>513050</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>513050</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B14">
-    <sortCondition ref="B1:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B13">
+    <sortCondition ref="B1:B13"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECE5A4F-C788-4D7F-B5F5-ABDFB30FDD00}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66343AA9-700A-49D4-8ADF-1BC774BF430E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,14 @@
   </si>
   <si>
     <t>双创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联互通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏MSCI中国A50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,21 +569,21 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>515790</v>
+        <v>159601</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>515030</v>
+        <v>515790</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -583,128 +591,139 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>515170</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>512690</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
+        <v>512690</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>510410</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>512800</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>159995</v>
+        <v>512800</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>159870</v>
+        <v>159995</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>159992</v>
+        <v>159870</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>512170</v>
+        <v>159992</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>512660</v>
+        <v>512170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>513860</v>
+        <v>512660</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
+        <v>513860</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>513050</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B13">
-    <sortCondition ref="B1:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66343AA9-700A-49D4-8ADF-1BC774BF430E}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{A942AFDA-0353-4296-984C-DF37A9516B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6993284-D19D-4951-B1DD-E269709098E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,14 @@
   </si>
   <si>
     <t>华夏MSCI中国A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏中证动漫游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,23 +709,34 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>513860</v>
+        <v>159869</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
+        <v>513860</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>513050</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/OnSite_FundList.xlsx
+++ b/data/OnSite_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>华夏中证新能源汽车</t>
+  </si>
+  <si>
+    <t>广发中证电力</t>
   </si>
   <si>
     <t>华夏中证细分食品饮料</t>
@@ -140,7 +143,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,20 +166,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="数黑体"/>
+      <name val="森系圆"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="赤蔷薇"/>
+      <name val="森系圆"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -653,48 +649,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,97 +703,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1222,134 +1218,145 @@
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="4">
-        <v>515170</v>
+        <v>159611</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="4">
+        <v>515170</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:3">
-      <c r="A9" s="4">
-        <v>512690</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15" spans="1:3">
       <c r="A10" s="4">
+        <v>512690</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:3">
+      <c r="A11" s="4">
         <v>510410</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="4">
-        <v>512800</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="4">
-        <v>159995</v>
+        <v>512800</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="4">
-        <v>159870</v>
+        <v>159995</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="4">
-        <v>159992</v>
+        <v>159870</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="4">
-        <v>512660</v>
+        <v>159992</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="4">
-        <v>159869</v>
+        <v>512660</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="4">
-        <v>513860</v>
+        <v>159869</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="4">
-        <v>513050</v>
+        <v>513860</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="4">
+        <v>513050</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="4">
         <v>513060</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
